--- a/Data/ContainerMaster.xlsx
+++ b/Data/ContainerMaster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandeeppatel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandeeppatel/Desktop/kr_deepak-4dbpp_rr-7787c61f6ad7/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B22C9A-55C3-483D-B38B-FB38B5633666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E00057-EB25-A64F-AF2B-9BECE936CD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="21800" windowHeight="12980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Worksheet" sheetId="1" r:id="rId1"/>
@@ -21,123 +21,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>CNTR_TYPE</t>
   </si>
   <si>
-    <t>CNTR_DESC</t>
-  </si>
-  <si>
     <t>MIN_CNTR_WT</t>
   </si>
   <si>
     <t>BOX-012</t>
   </si>
   <si>
-    <t>12 Cube</t>
-  </si>
-  <si>
     <t>BOX-014</t>
   </si>
   <si>
-    <t>J-14</t>
-  </si>
-  <si>
     <t>BOX-018</t>
   </si>
   <si>
-    <t>J-18</t>
-  </si>
-  <si>
     <t>BOX-024</t>
   </si>
   <si>
-    <t>J-24</t>
-  </si>
-  <si>
     <t>BOX-028</t>
   </si>
   <si>
-    <t>28 Box</t>
-  </si>
-  <si>
     <t>BOX-075</t>
   </si>
   <si>
-    <t>J-75</t>
-  </si>
-  <si>
     <t>BOX-32C</t>
   </si>
   <si>
-    <t>Toys ECT-32-C</t>
-  </si>
-  <si>
     <t>BOX-540</t>
   </si>
   <si>
-    <t>540 Box</t>
-  </si>
-  <si>
     <t>BOX-681</t>
   </si>
   <si>
-    <t>681 Box</t>
-  </si>
-  <si>
     <t>BOX-GOX</t>
   </si>
   <si>
-    <t>1001764</t>
-  </si>
-  <si>
     <t>BOX-LRG</t>
   </si>
   <si>
-    <t>UPS Large</t>
-  </si>
-  <si>
     <t>BOX-MED</t>
   </si>
   <si>
-    <t>UPS Medium</t>
-  </si>
-  <si>
     <t>BOX-SML</t>
   </si>
   <si>
-    <t>UPS Small</t>
-  </si>
-  <si>
     <t>BOX-TUB</t>
   </si>
   <si>
-    <t>Tube Box 36</t>
-  </si>
-  <si>
     <t>Box-GOH</t>
   </si>
   <si>
-    <t>GOH</t>
-  </si>
-  <si>
     <t>ENV-001</t>
   </si>
   <si>
-    <t>#1 Jiffy Padded</t>
-  </si>
-  <si>
     <t>ENV-005</t>
   </si>
   <si>
-    <t>#5 Bubble Mailer</t>
-  </si>
-  <si>
     <t>ENV-007</t>
-  </si>
-  <si>
-    <t>#7 Bubble Mailer</t>
   </si>
   <si>
     <t>SELECT CNTR_TYPE || '-' || CNTR_SIZE CNTR_TYPE
@@ -538,80 +481,76 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2" s="2">
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H2" s="2">
         <v>12</v>
@@ -619,551 +558,497 @@
       <c r="I2" s="2">
         <v>12</v>
       </c>
-      <c r="J2" s="2">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.34379999999999999</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.0156000000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2.4375</v>
+      </c>
+      <c r="G5" s="2">
+        <v>9.75</v>
+      </c>
+      <c r="H5" s="2">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.34379999999999999</v>
-      </c>
-      <c r="H3" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5.1852</v>
+      </c>
+      <c r="G6" s="2">
+        <v>16</v>
+      </c>
+      <c r="H6" s="2">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="G7" s="2">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G8" s="2">
+        <v>41</v>
+      </c>
+      <c r="H8" s="2">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1.0156000000000001</v>
-      </c>
-      <c r="H4" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.7378</v>
+      </c>
+      <c r="G9" s="2">
+        <v>11</v>
+      </c>
+      <c r="H9" s="2">
         <v>13</v>
       </c>
-      <c r="J4" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="I9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2.4375</v>
-      </c>
-      <c r="H5" s="2">
-        <v>9.75</v>
-      </c>
-      <c r="I5" s="2">
-        <v>18</v>
-      </c>
-      <c r="J5" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>5.1852</v>
-      </c>
-      <c r="H6" s="2">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2.3148</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2">
         <v>20</v>
-      </c>
-      <c r="J6" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3.75</v>
-      </c>
-      <c r="H7" s="2">
-        <v>15</v>
-      </c>
-      <c r="I7" s="2">
-        <v>18</v>
-      </c>
-      <c r="J7" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>30</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H8" s="2">
-        <v>41</v>
-      </c>
-      <c r="I8" s="2">
-        <v>24</v>
-      </c>
-      <c r="J8" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1.7378</v>
-      </c>
-      <c r="H9" s="2">
-        <v>11</v>
-      </c>
-      <c r="I9" s="2">
-        <v>13</v>
-      </c>
-      <c r="J9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>30</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2.3148</v>
-      </c>
-      <c r="H10" s="2">
-        <v>10</v>
       </c>
       <c r="I10" s="2">
         <v>20</v>
       </c>
-      <c r="J10" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="G11" s="2">
-        <v>1.56</v>
+        <v>24</v>
       </c>
       <c r="H11" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I11" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.40629999999999999</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>13</v>
+      </c>
+      <c r="I12" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.30559999999999998</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>11</v>
+      </c>
+      <c r="I13" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>30</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.40629999999999999</v>
-      </c>
-      <c r="H12" s="2">
-        <v>3</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.16550000000000001</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>11</v>
+      </c>
+      <c r="I14" s="2">
         <v>13</v>
       </c>
-      <c r="J12" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>30</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.30559999999999998</v>
-      </c>
-      <c r="H13" s="2">
-        <v>3</v>
-      </c>
-      <c r="I13" s="2">
-        <v>11</v>
-      </c>
-      <c r="J13" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>30</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.16550000000000001</v>
-      </c>
-      <c r="H14" s="2">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2">
-        <v>11</v>
-      </c>
-      <c r="J14" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G15" s="2">
-        <v>0.75</v>
+        <v>6</v>
       </c>
       <c r="H15" s="2">
         <v>6</v>
       </c>
       <c r="I15" s="2">
-        <v>6</v>
-      </c>
-      <c r="J15" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>0</v>
+        <v>13.333</v>
       </c>
       <c r="G16" s="2">
-        <v>13.333</v>
+        <v>48</v>
       </c>
       <c r="H16" s="2">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I16" s="2">
-        <v>20</v>
-      </c>
-      <c r="J16" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2.52E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>7.25</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
         <v>1</v>
       </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>2.52E-2</v>
-      </c>
-      <c r="H17" s="2">
-        <v>7.25</v>
-      </c>
-      <c r="I17" s="2">
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="H18" s="2">
         <v>0.5</v>
       </c>
-      <c r="J17" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="I18" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
         <v>1</v>
       </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>4.5600000000000002E-2</v>
-      </c>
-      <c r="H18" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>14.25</v>
+      </c>
+      <c r="H19" s="2">
         <v>0.5</v>
       </c>
-      <c r="J18" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>8.2500000000000004E-2</v>
-      </c>
-      <c r="H19" s="2">
-        <v>14.25</v>
-      </c>
       <c r="I19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="J19" s="2">
         <v>20</v>
       </c>
     </row>
@@ -1178,11 +1063,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
